--- a/1.5.1 Project Planning/Gantt Diagram.xlsx
+++ b/1.5.1 Project Planning/Gantt Diagram.xlsx
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Planificador de proyectos</t>
-  </si>
-  <si>
-    <t>Seleccione un periodo para resaltarlo a la derecha.  A continuación hay una leyenda que describe el gráfico.</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>Actividad 03</t>
-  </si>
-  <si>
-    <t>Actividad 04</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Actividad 05</t>
   </si>
@@ -119,31 +104,22 @@
     <t>Actividad 26</t>
   </si>
   <si>
-    <t>INICIO DEL PLAN</t>
-  </si>
-  <si>
-    <t>DURACIÓN DEL PLAN</t>
-  </si>
-  <si>
-    <t>INICIO REAL</t>
-  </si>
-  <si>
-    <t>DURACIÓN REAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Periodo resaltado:</t>
-  </si>
-  <si>
-    <t>PORCENTAJE COMPLETADO</t>
-  </si>
-  <si>
     <t>PERIODOS</t>
   </si>
   <si>
-    <t>Duración del plan</t>
-  </si>
-  <si>
-    <t>Inicio real</t>
+    <t>Risks Analysis</t>
+  </si>
+  <si>
+    <t>Systems Requirements</t>
+  </si>
+  <si>
+    <t>Software Requirements</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Start Iteration</t>
   </si>
   <si>
     <r>
@@ -172,28 +148,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Completado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Real (fuera del plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
+      <t>Completed</t>
     </r>
   </si>
   <si>
@@ -223,14 +178,53 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Completado (fuera del plan)</t>
+      <t>Completed (out of planning)</t>
     </r>
   </si>
   <si>
-    <t>Requisitos de Sistemas</t>
-  </si>
-  <si>
-    <t>Requisitos de Software</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Real (out of planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Start of the Plan</t>
+  </si>
+  <si>
+    <t>Plannign Duration</t>
+  </si>
+  <si>
+    <t>Real Start</t>
+  </si>
+  <si>
+    <t>Real Duration</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Week:</t>
+  </si>
+  <si>
+    <t>Git Set Up Repository</t>
   </si>
 </sst>
 </file>
@@ -658,47 +652,7 @@
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1087,8 +1041,8 @@
   </sheetPr>
   <dimension ref="B1:BQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="2:69" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1111,22 +1065,20 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:69" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H2" s="15">
         <v>34</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1135,14 +1087,14 @@
       <c r="P2" s="32"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="33" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="35"/>
       <c r="V2" s="18"/>
       <c r="W2" s="22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="X2" s="23"/>
       <c r="Y2" s="23"/>
@@ -1150,7 +1102,7 @@
       <c r="AA2" s="36"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="23"/>
       <c r="AE2" s="23"/>
@@ -1160,7 +1112,7 @@
       <c r="AI2" s="36"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AL2" s="23"/>
       <c r="AM2" s="23"/>
@@ -1174,25 +1126,25 @@
     </row>
     <row r="3" spans="2:69" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1390,7 +1342,7 @@
     </row>
     <row r="5" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7">
         <v>34</v>
@@ -1410,7 +1362,7 @@
     </row>
     <row r="6" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>35</v>
@@ -1430,47 +1382,47 @@
     </row>
     <row r="7" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="8">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1490,7 +1442,7 @@
     </row>
     <row r="10" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1510,7 +1462,7 @@
     </row>
     <row r="11" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -1530,7 +1482,7 @@
     </row>
     <row r="12" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1550,7 +1502,7 @@
     </row>
     <row r="13" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -1570,7 +1522,7 @@
     </row>
     <row r="14" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1590,7 +1542,7 @@
     </row>
     <row r="15" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="9">
         <v>6</v>
@@ -1610,7 +1562,7 @@
     </row>
     <row r="16" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -1630,7 +1582,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1650,7 +1602,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1670,7 +1622,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -1690,7 +1642,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -1710,7 +1662,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -1730,7 +1682,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -1750,7 +1702,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -1770,7 +1722,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7">
         <v>14</v>
@@ -1790,7 +1742,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
@@ -1810,7 +1762,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -1830,7 +1782,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7">
         <v>15</v>
@@ -1850,7 +1802,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7">
         <v>15</v>
@@ -1870,7 +1822,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
@@ -1890,7 +1842,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -1924,38 +1876,38 @@
     <mergeCell ref="W2:AA2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BQ4">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.5.1 Project Planning/Gantt Diagram.xlsx
+++ b/1.5.1 Project Planning/Gantt Diagram.xlsx
@@ -36,61 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>Actividad 05</t>
-  </si>
-  <si>
-    <t>Actividad 06</t>
-  </si>
-  <si>
-    <t>Actividad 07</t>
-  </si>
-  <si>
-    <t>Actividad 08</t>
-  </si>
-  <si>
-    <t>Actividad 09</t>
-  </si>
-  <si>
-    <t>Actividad 10</t>
-  </si>
-  <si>
-    <t>Actividad 11</t>
-  </si>
-  <si>
-    <t>Actividad 12</t>
-  </si>
-  <si>
-    <t>Actividad 13</t>
-  </si>
-  <si>
-    <t>Actividad 14</t>
-  </si>
-  <si>
-    <t>Actividad 15</t>
-  </si>
-  <si>
-    <t>Actividad 16</t>
-  </si>
-  <si>
-    <t>Actividad 17</t>
-  </si>
-  <si>
-    <t>Actividad 18</t>
-  </si>
-  <si>
-    <t>Actividad 19</t>
-  </si>
-  <si>
-    <t>Actividad 20</t>
-  </si>
-  <si>
-    <t>Actividad 21</t>
-  </si>
-  <si>
-    <t>Actividad 22</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Actividad 23</t>
   </si>
@@ -226,12 +172,60 @@
   <si>
     <t>Git Set Up Repository</t>
   </si>
+  <si>
+    <t>e2 Studio Installation</t>
+  </si>
+  <si>
+    <t>Configure GPI</t>
+  </si>
+  <si>
+    <t>Analog Input Config</t>
+  </si>
+  <si>
+    <t>PWM config</t>
+  </si>
+  <si>
+    <t>MCU clock config</t>
+  </si>
+  <si>
+    <t>SPI config</t>
+  </si>
+  <si>
+    <t>IRQ config</t>
+  </si>
+  <si>
+    <t>DC motor velocity control</t>
+  </si>
+  <si>
+    <t>Hall Effect Sensor config</t>
+  </si>
+  <si>
+    <t>Set Point resistor config</t>
+  </si>
+  <si>
+    <t>LCD config</t>
+  </si>
+  <si>
+    <t>OS config</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Throughput analysis</t>
+  </si>
+  <si>
+    <t>Cyclomatic analysis complexity</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -331,8 +325,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +525,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,6 +636,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1041,8 +1054,8 @@
   </sheetPr>
   <dimension ref="B1:BQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="2:69" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1071,14 +1084,14 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H2" s="15">
         <v>34</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1087,14 +1100,14 @@
       <c r="P2" s="32"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="33" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="35"/>
       <c r="V2" s="18"/>
       <c r="W2" s="22" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="X2" s="23"/>
       <c r="Y2" s="23"/>
@@ -1102,7 +1115,7 @@
       <c r="AA2" s="36"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="22" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AD2" s="23"/>
       <c r="AE2" s="23"/>
@@ -1112,7 +1125,7 @@
       <c r="AI2" s="36"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AL2" s="23"/>
       <c r="AM2" s="23"/>
@@ -1126,25 +1139,25 @@
     </row>
     <row r="3" spans="2:69" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1342,7 +1355,7 @@
     </row>
     <row r="5" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7">
         <v>34</v>
@@ -1362,7 +1375,7 @@
     </row>
     <row r="6" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7">
         <v>35</v>
@@ -1382,7 +1395,7 @@
     </row>
     <row r="7" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>36</v>
@@ -1402,16 +1415,16 @@
     </row>
     <row r="8" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
         <v>0.25</v>
       </c>
       <c r="E8" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7">
         <v>0.25</v>
@@ -1422,442 +1435,334 @@
     </row>
     <row r="9" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6</v>
-      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+    </row>
+    <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="7">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7">
-        <v>7</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="7">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" s="7">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="7">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>30</v>
-      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
